--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-561026.890859327</v>
+        <v>-564592.3927328758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516703</v>
+        <v>2280223.653892725</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12335576.93385269</v>
+        <v>12332037.05751018</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>187.3347754362933</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -671,10 +671,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>396.9389314495728</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720723228</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.23626448716594</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>7.755913384879197</v>
+        <v>35.46212900394279</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>190.1558745614889</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>314.9078914059687</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968043</v>
+        <v>50.64353720723228</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>72.03015753874894</v>
+        <v>165.6158245190444</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>159.8002412057219</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.85199620810264</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>155.2194736086306</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>149.3335248217208</v>
       </c>
     </row>
     <row r="11">
@@ -1370,16 +1370,16 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>20.35166949961056</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>168.3146059521773</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>23.97558130036046</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.620836633850926</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873666</v>
       </c>
       <c r="D14" t="n">
-        <v>243.2916936440879</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.4793772398888</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.6471816905899</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372778</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.7701071136279</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>30.81515717968577</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.4474895938728</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>63.83940654028999</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681687</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338892</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456085</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901676</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>140.5006359225899</v>
+        <v>211.506091445786</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534021</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658103</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006894</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059319</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414342</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007186</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035427</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.085507492194</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507311</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484038</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723251</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380455</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497648</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,19 +2767,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035426</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380454</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542116</v>
+        <v>283.7098784815734</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820274</v>
+        <v>276.4638267093892</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954276</v>
+        <v>268.8067977227894</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345496</v>
+        <v>285.7777698619114</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852507</v>
+        <v>299.9455743126125</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568056</v>
+        <v>296.2512081841674</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291029</v>
+        <v>208.0623001564647</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838851</v>
+        <v>24.17382596575031</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828861</v>
+        <v>52.06849973565043</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161062</v>
+        <v>108.485676643468</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696761</v>
+        <v>140.4152824970379</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034455</v>
+        <v>225.9058214308073</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813241</v>
+        <v>254.5091249086859</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162024</v>
+        <v>272.7781592435642</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885336</v>
+        <v>279.7458822158954</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431696</v>
+        <v>70.57601873167876</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459937</v>
+        <v>55.72314698196116</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643909</v>
+        <v>41.29686219380089</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193182</v>
+        <v>41.22330424668</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908547</v>
+        <v>42.97275566644727</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147761</v>
+        <v>53.7915935888394</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804965</v>
+        <v>41.14384575541145</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922158</v>
+        <v>18.98356133658338</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736775</v>
+        <v>9.882059701039296</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920482</v>
+        <v>88.00800320656661</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133769</v>
+        <v>120.5819415407387</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404468</v>
+        <v>169.8044840678086</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273127</v>
+        <v>150.5396319546745</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480629</v>
+        <v>167.7171782754247</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947754</v>
+        <v>118.9595992221372</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714518</v>
+        <v>108.1010207988136</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.59377642287555</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277567</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059322</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.995969188804</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390864</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092613</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380524</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357251</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596464</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253669</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708617</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369185</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559388</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386987</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799147</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190366</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875521</v>
+        <v>6.59377642287555</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277567</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059322</v>
       </c>
       <c r="U38" t="n">
         <v>122.8352329541631</v>
@@ -3566,7 +3566,7 @@
         <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006895</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730206</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880397</v>
+        <v>52.995969188804</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908638</v>
+        <v>38.1430974390864</v>
       </c>
       <c r="D40" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092613</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380524</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357251</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596464</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253669</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708617</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369185</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3724,10 +3724,10 @@
         <v>150.1371287325499</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792625</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593878</v>
+        <v>90.5209712559388</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.48225061359</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277564</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541631</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.995969188804</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.1430974390864</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380524</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357251</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596464</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253669</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708617</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369185</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.5209712559388</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697377</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
         <v>208.3257718879325</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708589</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369182</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1778.292260658343</v>
+        <v>1908.64878275798</v>
       </c>
       <c r="C2" t="n">
-        <v>1385.116759161274</v>
+        <v>1719.421736862735</v>
       </c>
       <c r="D2" t="n">
-        <v>999.6756303779414</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="E2" t="n">
-        <v>999.6756303779414</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F2" t="n">
-        <v>582.7811919079192</v>
+        <v>917.08616960938</v>
       </c>
       <c r="G2" t="n">
-        <v>181.83277630229</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H2" t="n">
-        <v>181.83277630229</v>
+        <v>179.8403636638738</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035829</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310447</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>923.8673409492404</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1462.126125959332</v>
+        <v>588.4870060424408</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.937409596793</v>
+        <v>1102.089684652131</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596793</v>
+        <v>1542.129285544459</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596793</v>
+        <v>1890.316777675981</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737742</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737742</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737742</v>
+        <v>1908.64878275798</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737742</v>
+        <v>1908.64878275798</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737742</v>
+        <v>1908.64878275798</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737742</v>
+        <v>1908.64878275798</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737742</v>
+        <v>1908.64878275798</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737742</v>
+        <v>1908.64878275798</v>
       </c>
       <c r="Y2" t="n">
-        <v>1778.292260658343</v>
+        <v>1908.64878275798</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347858</v>
+        <v>840.8692298963696</v>
       </c>
       <c r="C3" t="n">
-        <v>692.207412094878</v>
+        <v>690.2149994564618</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163583</v>
+        <v>560.1260320779421</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822423</v>
+        <v>179.1879171438261</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284324</v>
+        <v>90.89050074442702</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144822</v>
+        <v>154.618228976066</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382924</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767087</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.6085726868</v>
+        <v>1471.526139546296</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466454</v>
+        <v>1985.128818155986</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466454</v>
+        <v>1985.128818155986</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182851</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737742</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635806</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535675</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734584</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413225</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784292</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917579</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757471</v>
+        <v>992.6655643373309</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2043.047724425997</v>
+        <v>362.3018770801858</v>
       </c>
       <c r="C4" t="n">
-        <v>2043.047724425997</v>
+        <v>362.3018770801858</v>
       </c>
       <c r="D4" t="n">
-        <v>2043.047724425997</v>
+        <v>362.3018770801858</v>
       </c>
       <c r="E4" t="n">
-        <v>1887.488912285199</v>
+        <v>362.3018770801858</v>
       </c>
       <c r="F4" t="n">
-        <v>1730.162977498172</v>
+        <v>204.9759422931588</v>
       </c>
       <c r="G4" t="n">
-        <v>1561.908923597618</v>
+        <v>204.9759422931588</v>
       </c>
       <c r="H4" t="n">
-        <v>1406.430372559111</v>
+        <v>204.9759422931588</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196189</v>
+        <v>71.88151693023664</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196189</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306131</v>
+        <v>123.3382878662805</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179931</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518195</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549404</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591112</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367691</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737742</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370319</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>2050.881980370319</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>2050.881980370319</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>2043.047724425997</v>
+        <v>547.5098957714871</v>
       </c>
       <c r="V4" t="n">
-        <v>2043.047724425997</v>
+        <v>547.5098957714871</v>
       </c>
       <c r="W4" t="n">
-        <v>2043.047724425997</v>
+        <v>547.5098957714871</v>
       </c>
       <c r="X4" t="n">
-        <v>2043.047724425997</v>
+        <v>547.5098957714871</v>
       </c>
       <c r="Y4" t="n">
-        <v>2043.047724425997</v>
+        <v>547.5098957714871</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>778.4788770627252</v>
+        <v>1851.661735376346</v>
       </c>
       <c r="C5" t="n">
-        <v>778.4788770627252</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="D5" t="n">
-        <v>778.4788770627252</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>778.4788770627252</v>
+        <v>871.5604407383577</v>
       </c>
       <c r="F5" t="n">
-        <v>361.584438592703</v>
+        <v>454.6660022683354</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035829</v>
+        <v>186.1530196651667</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310447</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310447</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764296</v>
+        <v>588.4870060424408</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713892</v>
+        <v>1102.089684652131</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.59547760622</v>
+        <v>1542.129285544459</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737742</v>
+        <v>1890.316777675981</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737742</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023264</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023264</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023264</v>
+        <v>1851.661735376346</v>
       </c>
       <c r="U5" t="n">
-        <v>1881.037326457862</v>
+        <v>1851.661735376346</v>
       </c>
       <c r="V5" t="n">
-        <v>1538.930517161381</v>
+        <v>1851.661735376346</v>
       </c>
       <c r="W5" t="n">
-        <v>1167.931482129668</v>
+        <v>1851.661735376346</v>
       </c>
       <c r="X5" t="n">
-        <v>778.4788770627252</v>
+        <v>1851.661735376346</v>
       </c>
       <c r="Y5" t="n">
-        <v>778.4788770627252</v>
+        <v>1851.661735376346</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347858</v>
+        <v>840.8692298963696</v>
       </c>
       <c r="C6" t="n">
-        <v>692.207412094878</v>
+        <v>690.2149994564618</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163583</v>
+        <v>560.1260320779421</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822423</v>
+        <v>179.1879171438261</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284324</v>
+        <v>90.89050074442702</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475484</v>
+        <v>158.7695259828387</v>
       </c>
       <c r="L6" t="n">
-        <v>527.061745293068</v>
+        <v>642.335611881152</v>
       </c>
       <c r="M6" t="n">
-        <v>527.061745293068</v>
+        <v>1155.938290490842</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875473</v>
+        <v>1669.540969100532</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466454</v>
+        <v>1669.540969100532</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182851</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737742</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737742</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737742</v>
+        <v>2075.16233781693</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757471</v>
+        <v>992.6655643373309</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9742104332609</v>
+        <v>367.3414777878346</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9742104332609</v>
+        <v>197.1363598538238</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9742104332609</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9742104332609</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9742104332609</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9742104332609</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475484</v>
+        <v>41.5032467563386</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046967</v>
+        <v>123.3382878662805</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167605</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479696</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896776</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662562</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363072</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688842</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688842</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688842</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688842</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>555.0623473897084</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>271.731945320886</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9742104332609</v>
+        <v>775.6615576624926</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9742104332609</v>
+        <v>552.5494964791359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1226.556240989903</v>
+        <v>1579.705190930838</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.556240989903</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.556240989903</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E8" t="n">
-        <v>1226.556240989903</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>809.6618025198808</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>396.4990470078839</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>72.41599657437456</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1427.426901484996</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>1867.466502377325</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2215.653994508847</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4838,16 +4838,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.541695780699</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.0509867013</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>556.2535937319053</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V10" t="n">
-        <v>556.2535937319053</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W10" t="n">
-        <v>556.2535937319053</v>
+        <v>462.613506756823</v>
       </c>
       <c r="X10" t="n">
-        <v>556.2535937319053</v>
+        <v>228.5331845398061</v>
       </c>
       <c r="Y10" t="n">
-        <v>556.2535937319053</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>800.8136995685215</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2751.985177299521</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299521</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5130,10 +5130,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.9238301596409</v>
+        <v>448.7226219791496</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9238301596409</v>
+        <v>350.3137791913329</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083496</v>
+        <v>266.4769412400413</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>266.4769412400413</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>266.4769412400413</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>170.0191624856807</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>86.33688659336852</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1489.03482703284</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1489.03482703284</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="T13" t="n">
-        <v>1325.112050347268</v>
+        <v>1332.809865128935</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.469533735363</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.469533735363</v>
+        <v>924.9842784840482</v>
       </c>
       <c r="W13" t="n">
-        <v>899.9354068127341</v>
+        <v>713.4501515614197</v>
       </c>
       <c r="X13" t="n">
-        <v>737.6513597419111</v>
+        <v>713.4501515614197</v>
       </c>
       <c r="Y13" t="n">
-        <v>586.3355737047483</v>
+        <v>562.134365524257</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.32705002962</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>1643.947823678744</v>
+        <v>1370.477011451</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185756</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579425</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2644.451902185803</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962825</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="X14" t="n">
-        <v>2290.021483962825</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y14" t="n">
-        <v>1965.32705002962</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1286.571845448837</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>1803.092128039818</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2208.713496756216</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>389.4254956545558</v>
+        <v>368.0415815981121</v>
       </c>
       <c r="C16" t="n">
-        <v>291.0166528667389</v>
+        <v>303.5573325675161</v>
       </c>
       <c r="D16" t="n">
-        <v>207.1798149154475</v>
+        <v>303.5573325675161</v>
       </c>
       <c r="E16" t="n">
-        <v>123.4172779208438</v>
+        <v>303.5573325675161</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>303.5573325675161</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131557</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138166</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922023</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236451</v>
       </c>
       <c r="U16" t="n">
-        <v>1059.870222192436</v>
+        <v>936.0428256245457</v>
       </c>
       <c r="V16" t="n">
-        <v>865.6871521594545</v>
+        <v>741.859755591564</v>
       </c>
       <c r="W16" t="n">
-        <v>654.153025236826</v>
+        <v>530.3256286689355</v>
       </c>
       <c r="X16" t="n">
-        <v>654.153025236826</v>
+        <v>368.0415815981121</v>
       </c>
       <c r="Y16" t="n">
-        <v>502.8372391996633</v>
+        <v>368.0415815981121</v>
       </c>
     </row>
     <row r="17">
@@ -5498,22 +5498,22 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924248</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
         <v>565.7512566404057</v>
@@ -5540,25 +5540,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1521.202330875214</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,22 +5671,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P19" t="n">
         <v>1094.77996610623</v>
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924227</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,46 +5914,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960418</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343059</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879436</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,31 +5972,31 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
         <v>2132.883732040978</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573995</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6139,7 +6139,7 @@
         <v>87.3386307407269</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222427</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184709</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567349</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879441</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296521</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106231</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476282</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476282</v>
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142182</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678972</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025982</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647884</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508979</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379501</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875813</v>
+        <v>872.7308420875812</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476735</v>
+        <v>722.0766116476734</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691539</v>
+        <v>591.9876442691537</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350378</v>
+        <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672777</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278174</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278174</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368296</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.783350821251</v>
+        <v>2367.78335082125</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.85267372112</v>
+        <v>2232.852673721119</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920028</v>
+        <v>2055.868861920027</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103024</v>
+        <v>1393.148471103023</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528543</v>
+        <v>1024.527176528542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985355</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755029</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
@@ -6388,46 +6388,46 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904114</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026485</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859516</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134136</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.28679488479</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508977</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985347</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414152</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878061</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879673</v>
+        <v>245.3698453879677</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746012</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222127</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654423</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463652</v>
+        <v>904.3560533993092</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057079</v>
+        <v>601.3807258108118</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.1370811803399</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189317</v>
+        <v>91.97314162835563</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076149</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766602</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311927</v>
+        <v>571.1872645386352</v>
       </c>
       <c r="L32" t="n">
-        <v>1382.319247076792</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.493475235813</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873275</v>
+        <v>2218.616740534057</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765603</v>
+        <v>2658.656341426386</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897125</v>
+        <v>3118.49595413289</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038074</v>
+        <v>3303.341514273839</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038074</v>
+        <v>3377.756780117261</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.27441990849</v>
+        <v>3325.162335939837</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397271</v>
+        <v>3215.580844380778</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761236</v>
+        <v>3073.747225696901</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394119</v>
+        <v>2845.559527281945</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291771</v>
+        <v>2588.479603131757</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154193</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004159</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807924</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408846</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623649</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732527</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563845</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288499</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076149</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227153</v>
+        <v>387.2942816645717</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210285</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210285</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.896622945109</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216397</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.03536301433</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746246</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965099</v>
+        <v>365.671367692975</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918641</v>
+        <v>309.385360640489</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237438</v>
+        <v>267.6713584245285</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123113</v>
+        <v>226.0316571652558</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546492</v>
+        <v>182.6248332597535</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834597</v>
+        <v>128.2898902407238</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431864</v>
+        <v>86.73045008374257</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076149</v>
+        <v>67.55513560234522</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703946</v>
+        <v>149.4335135798901</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067442</v>
+        <v>231.268554689832</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076146</v>
+        <v>507.0483151386142</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458786</v>
+        <v>799.1395520791348</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770877</v>
+        <v>982.3291861103439</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145866</v>
+        <v>1256.686073727034</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649516</v>
+        <v>1376.562239503613</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746637</v>
+        <v>1379.984435873664</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308579</v>
+        <v>1370.002557387766</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420493</v>
+        <v>1281.10558445184</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518092</v>
+        <v>1159.305643501599</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689358</v>
+        <v>987.7859626250242</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395473</v>
+        <v>835.7257283273732</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000898</v>
+        <v>666.3144371400755</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124379</v>
+        <v>546.1532258045834</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584463</v>
+        <v>436.9602755027515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358935</v>
@@ -6968,19 +6968,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885602</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369578</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218809</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634918</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588731</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072696</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7108,37 +7108,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918821</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161914</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.955836619424</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.30217123301</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984015</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974532</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
         <v>2132.883732040978</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885602</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369578</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218809</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634918</v>
       </c>
       <c r="F40" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588731</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072696</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031230109</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.533811422243</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960427</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343068</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665516</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.847430707224</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476282</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.06281534124</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918821</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161914</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194237</v>
+        <v>634.955836619424</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330097</v>
+        <v>483.30217123301</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984015</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974532</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803426</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404059</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,31 +7430,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885602</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218809</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072696</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462929</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7576,7 +7576,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
@@ -7591,28 +7591,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918821</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161914</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.955836619424</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.30217123301</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984015</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974532</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7631,7 +7631,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
         <v>542.6718405099318</v>
@@ -7640,22 +7640,22 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924233</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129449</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404056</v>
+        <v>565.7512566404066</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N44" t="n">
         <v>2132.883732040978</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,13 +7807,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
         <v>806.6193906797589</v>
@@ -7822,34 +7822,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984012</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>533.7931723751338</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321628</v>
+        <v>193.5145772035983</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920166</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837474</v>
+        <v>611.1777065035443</v>
       </c>
       <c r="N3" t="n">
-        <v>610.8144732376556</v>
+        <v>604.1626973083991</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>178.0263139717833</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,10 +8222,10 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>464.4895008354898</v>
+        <v>193.5145772035983</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920166</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>208.0477224308082</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035443</v>
       </c>
       <c r="N6" t="n">
-        <v>581.5483568767978</v>
+        <v>604.1626973083991</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,13 +8453,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>296.0083050530727</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>674.5394322581657</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,7 +9006,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9015,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.4640783312027</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9495,7 +9495,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167031</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>691.2645480167031</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167037</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118428</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>223.122899967847</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>297.8137645877562</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.7701071136279</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>99.29282285660759</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>36.70958741420051</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>43.96283044516592</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>67.21671145667911</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>236.792271629099</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096562</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.58534781964865</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177836</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465747</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442474</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>71.00545552319622</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.802628176791</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1075078.406712366</v>
+        <v>1073273.763871086</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1075078.406712366</v>
+        <v>1073273.763871086</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>969836.2891295834</v>
+        <v>969836.289129583</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969836.2891295834</v>
+        <v>969836.2891295836</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>252465.0493306995</v>
       </c>
       <c r="C2" t="n">
+        <v>252465.0493306995</v>
+      </c>
+      <c r="D2" t="n">
         <v>252465.0493306996</v>
-      </c>
-      <c r="D2" t="n">
-        <v>252465.0493306995</v>
       </c>
       <c r="E2" t="n">
         <v>223102.6327941606</v>
@@ -26329,28 +26329,28 @@
         <v>252465.0493306991</v>
       </c>
       <c r="H2" t="n">
-        <v>252465.0493306993</v>
+        <v>252465.0493306994</v>
       </c>
       <c r="I2" t="n">
-        <v>252465.0493306993</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="J2" t="n">
-        <v>252465.0493306996</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="K2" t="n">
-        <v>252465.0493306996</v>
+        <v>252465.0493306997</v>
       </c>
       <c r="L2" t="n">
-        <v>252465.0493306998</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="M2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="N2" t="n">
-        <v>252465.0493306993</v>
+        <v>252465.0493306992</v>
       </c>
       <c r="O2" t="n">
-        <v>252465.0493306993</v>
+        <v>252465.0493306999</v>
       </c>
       <c r="P2" t="n">
         <v>252465.0493306993</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918553</v>
+        <v>173858.6570340557</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062243</v>
+        <v>22558.42953401291</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.904397302307186e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668183</v>
       </c>
       <c r="H3" t="n">
-        <v>1.85189012250345e-10</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945022</v>
+        <v>200285.8640399299</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.904397302307186e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728582</v>
+        <v>62456.24177539626</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962317</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.6940427714</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138796</v>
+        <v>237331.8440488212</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138796</v>
+        <v>237331.8440488211</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
+        <v>151510.2534766781</v>
+      </c>
+      <c r="F4" t="n">
         <v>151510.2534766782</v>
-      </c>
-      <c r="F4" t="n">
-        <v>151510.2534766781</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682602</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682602</v>
@@ -26442,19 +26442,19 @@
         <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326433</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="N4" t="n">
         <v>199269.1699682602</v>
       </c>
       <c r="O4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
         <v>199269.1699682602</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001367</v>
+        <v>65170.06753481732</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001367</v>
+        <v>65170.06753481732</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,28 +26485,28 @@
         <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391952</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173842</v>
+        <v>60823.19813315428</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228848.512715049</v>
+        <v>-223895.5192869947</v>
       </c>
       <c r="C6" t="n">
-        <v>-46643.56442319369</v>
+        <v>-50036.86225293894</v>
       </c>
       <c r="D6" t="n">
-        <v>-54964.40480876353</v>
+        <v>-62700.69403215399</v>
       </c>
       <c r="E6" t="n">
-        <v>-93716.20185640267</v>
+        <v>-93925.9334030921</v>
       </c>
       <c r="F6" t="n">
-        <v>18406.35961764204</v>
+        <v>18196.62807095235</v>
       </c>
       <c r="G6" t="n">
-        <v>-52399.21548976268</v>
+        <v>-52399.21548976265</v>
       </c>
       <c r="H6" t="n">
-        <v>-4973.889953080834</v>
+        <v>-4973.889953080623</v>
       </c>
       <c r="I6" t="n">
-        <v>-4973.889953080536</v>
+        <v>-4973.889953080587</v>
       </c>
       <c r="J6" t="n">
-        <v>-218015.8075503655</v>
+        <v>-211499.5223957933</v>
       </c>
       <c r="K6" t="n">
-        <v>-11213.65835586307</v>
+        <v>-11213.6583558633</v>
       </c>
       <c r="L6" t="n">
-        <v>-66396.24729048446</v>
+        <v>-70445.08450095635</v>
       </c>
       <c r="M6" t="n">
-        <v>-47174.71941270366</v>
+        <v>-48226.41442389181</v>
       </c>
       <c r="N6" t="n">
-        <v>-4973.889953080507</v>
+        <v>-4973.889953080594</v>
       </c>
       <c r="O6" t="n">
-        <v>-32741.5839958518</v>
+        <v>-32741.58399585156</v>
       </c>
       <c r="P6" t="n">
         <v>-4973.889953080623</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155843</v>
@@ -26753,31 +26753,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344355</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344355</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443785</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.060736844378</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095185</v>
+        <v>844.4391950293152</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014442</v>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.238049662788398e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085228</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.238049662788398e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660727</v>
+        <v>78.07030221924532</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551308</v>
+        <v>17.58004954287485</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346426</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4185362318791e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344355</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485958</v>
+        <v>72.62154181506264</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773698</v>
+        <v>659.3622249971667</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240747</v>
+        <v>117.126871304278</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.238049662788398e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085228</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.238049662788398e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344355</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485958</v>
+        <v>72.62154181506264</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>201.9089710458054</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.09219650730404</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758483</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.1777423863225</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,22 +27543,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>274.8284904556389</v>
+        <v>247.1222748365753</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27616,19 +27616,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>199.0878719206098</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>94.12323655090819</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862763</v>
+        <v>124.5704364758483</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>159.7093614560978</v>
+        <v>66.12369447580232</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>229.4435052763768</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>112.1017495303572</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28023,16 +28023,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>127.3649302318875</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>71.54741574980227</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,13 +28755,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634529973</v>
+        <v>35.71049010668918</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28986,13 +28986,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29220,14 +29220,14 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634530612</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155843</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155843</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901329</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.9912744743164</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P26" t="n">
-        <v>93.9912744743164</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.9912744743164</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431641</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901107</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.6599273883229</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>81.10808140893994</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="K34" t="n">
-        <v>18.7144686125331</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>106.8683420224814</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000713</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000713</v>
+        <v>112.7799197727095</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082797</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30402,7 +30402,7 @@
         <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668994</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155843</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082793</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155843</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082797</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30879,7 +30879,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30888,19 +30888,19 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082793</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155843</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32710,25 +32710,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32947,25 +32947,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -33184,25 +33184,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -33421,25 +33421,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -33658,25 +33658,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -33895,25 +33895,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -34132,25 +34132,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -34369,25 +34369,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.236771369671924e-13</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.534324246883461e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.707231357290215e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.734856145506603e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.638175463473446e-13</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.398144857545746e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.049948560845564e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>380.5450026446421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344355</v>
+        <v>43.78952560587106</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344355</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="N3" t="n">
-        <v>525.442360383489</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>90.94294915246866</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>314.7644492377626</v>
+        <v>43.78952560587106</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>118.4507870974749</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="N6" t="n">
-        <v>496.1762440226311</v>
+        <v>518.7905844542324</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>151.5096066346805</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35735,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.4759251752887</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257297</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.251623847524</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488452</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,13 +36051,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724881</v>
+        <v>156.7975262446473</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>171.4214974565499</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032134059</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060962</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.3033249682111</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510917</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039247</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853757</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698312</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446888</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425276</v>
+        <v>528.5755626272223</v>
       </c>
       <c r="M29" t="n">
-        <v>645.5073351254082</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449114</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047975</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853757</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698313</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261603</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.944897731851</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682824</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>600.1759880394146</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449114</v>
+        <v>614.2507921538511</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065878</v>
+        <v>464.4844572792972</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537623</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>598.8774259673918</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791222</v>
+        <v>82.70543230055043</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993431</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220913</v>
+        <v>278.5654145947295</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>295.0416534752733</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371501</v>
+        <v>277.1281693097883</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380295</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102238</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,16 +37476,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526631</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634530932</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634530867</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535424</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634530472</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>137.7507871136803</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683762</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634530932</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,25 +38017,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317797</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682111</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510917</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449114</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457865</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065878</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110592</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,19 +38184,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724881</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634530472</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
